--- a/src/main/resources/template/excel/export/goodsGrossProfitRate.xlsx
+++ b/src/main/resources/template/excel/export/goodsGrossProfitRate.xlsx
@@ -124,10 +124,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.branchCode}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.supplierCode}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -165,6 +161,10 @@
   </si>
   <si>
     <t>${obj.realGrossProfitRateStr}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchName}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -720,40 +720,40 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/goodsGrossProfitRate.xlsx
+++ b/src/main/resources/template/excel/export/goodsGrossProfitRate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27570" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>lijy02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -64,10 +69,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>商品毛利率报表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>机构编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -165,6 +166,10 @@
   </si>
   <si>
     <t>${obj.branchName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品毛利率分析</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -256,13 +261,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -277,7 +282,7 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -286,7 +291,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -335,7 +340,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -637,29 +642,29 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -674,86 +679,86 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -787,7 +792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/goodsGrossProfitRate.xlsx
+++ b/src/main/resources/template/excel/export/goodsGrossProfitRate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>lijy02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1">
+    <comment ref="A3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,6 +177,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +337,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,24 +648,24 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -679,7 +685,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -748,10 +754,10 @@
       <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -767,8 +773,8 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -778,7 +784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -792,7 +798,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
